--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.738799999999993</v>
+        <v>-6.798699999999992</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.26430000000002</v>
+        <v>-21.20060000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -522,10 +522,10 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.588499999999993</v>
+        <v>-8.453099999999996</v>
       </c>
       <c r="E5" t="n">
-        <v>12.43679999999999</v>
+        <v>12.71329999999999</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.15520000000001</v>
+        <v>13.53450000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.29749999999999</v>
+        <v>13.4032</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.59579999999997</v>
+        <v>-20.42079999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.47960000000001</v>
+        <v>-21.33500000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.6751</v>
+        <v>12.8393</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.41790000000003</v>
+        <v>-21.39870000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.42760000000003</v>
+        <v>-22.40690000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
